--- a/zzzs/LokacijeZdrDelavcevOC.xlsx
+++ b/zzzs/LokacijeZdrDelavcevOC.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFFEA56-767A-4F63-AE12-3C51E1C4ED30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7F+UHVaURT7sc3l6O1WzqUOkoWv+FmZSpsZf6GVrvgxPazTOlLcINPswQ6+sFf4jdLKv4ttRKjI1key5+ovrfA==" workbookSaltValue="eyaemhMskNcnoQ38a8iM6Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{331212EC-E100-48B5-881A-7E7240B3618E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bxkCQ5HZxIjNDTp02HdGBJjyrCMGz4o9MxnWEyI4tLG2nB9VGg4Qy+LC766KAbTwiEGEeHYqCYN25xBtDvYdUA==" workbookSaltValue="VbgiprDGDe7EtVC0ogpvfA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7593,7 +7593,7 @@
     <t>038183716</t>
   </si>
   <si>
-    <t>Datum in čas priprave: 12.05.2023 13:46:43</t>
+    <t>Datum in čas priprave: 13.05.2023 16:33:37</t>
   </si>
 </sst>
 </file>
@@ -79221,7 +79221,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XCPH5uhdNz+ZvGguwFMi3PSo/a+sXNfGsRXnk8sEU6d1JBHDwCgynMrr3m69u0C2QCxkK1bZ+syjBiRzBokHqw==" saltValue="GE590h5rT+kXq7xBir5fWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Ov9ix1Q8yR3Yk/idPnE5ZwwbYACplz1NrDrRVKvd3HBDqPE7Hsu3AlJUPZAzqW60XBKHNLlbCbw0yKKkZjy4g==" saltValue="KFcUX3FslAahkVIs7Y+nwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
